--- a/iteracoes_aloc_PID.xlsx
+++ b/iteracoes_aloc_PID.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>1.01</v>
       </c>
       <c r="E3">
-        <v>0.98409999999999997</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="F3">
         <v>1.2859</v>
@@ -491,7 +491,7 @@
         <v>0.53</v>
       </c>
       <c r="E4">
-        <v>0.98550000000000004</v>
+        <v>0.1356</v>
       </c>
       <c r="F4">
         <v>1.0712999999999999</v>
@@ -529,7 +529,7 @@
         <v>1.44</v>
       </c>
       <c r="E5">
-        <v>0.98650000000000004</v>
+        <v>0.15049999999999999</v>
       </c>
       <c r="F5">
         <v>1.3922000000000001</v>
@@ -567,7 +567,7 @@
         <v>1.55</v>
       </c>
       <c r="E6">
-        <v>0.98480000000000001</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="F6">
         <v>1.401</v>
@@ -605,7 +605,7 @@
         <v>1.31</v>
       </c>
       <c r="E7">
-        <v>0.99660000000000004</v>
+        <v>0.10929999999999999</v>
       </c>
       <c r="F7">
         <v>1.1835</v>
@@ -643,7 +643,7 @@
         <v>2.33</v>
       </c>
       <c r="E8">
-        <v>0.99439999999999995</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="F8">
         <v>1.7957000000000001</v>
